--- a/nukebot_protocol.xlsx
+++ b/nukebot_protocol.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61301765\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Neo-FRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AE06DB-0C57-4F1E-9BA3-EC557D32D5C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09440E85-36B1-45E6-AFB0-22917BDA3D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{759173A2-E764-4CF2-86EF-8E18C3F03F75}"/>
+    <workbookView xWindow="4860" yWindow="540" windowWidth="21600" windowHeight="12735" xr2:uid="{759173A2-E764-4CF2-86EF-8E18C3F03F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>header_bit</t>
   </si>
@@ -54,36 +54,15 @@
     <t>meaning[value]</t>
   </si>
   <si>
-    <t>x.xxx</t>
-  </si>
-  <si>
-    <t>//note vx**2+vy**2 = 1</t>
-  </si>
-  <si>
     <t>sign</t>
   </si>
   <si>
     <t>'+'[0],'-'[1]</t>
   </si>
   <si>
-    <t>x.xx</t>
-  </si>
-  <si>
-    <t>xxxx</t>
-  </si>
-  <si>
-    <t>vz = 1 means 1 revolution</t>
-  </si>
-  <si>
-    <t>vx,vy in mm</t>
-  </si>
-  <si>
     <t>manual</t>
   </si>
   <si>
-    <t>auto</t>
-  </si>
-  <si>
     <t>[0]</t>
   </si>
   <si>
@@ -105,22 +84,13 @@
     <t>[9]</t>
   </si>
   <si>
-    <t>[10:13]</t>
-  </si>
-  <si>
-    <t>[2:5]</t>
-  </si>
-  <si>
-    <t>[6]</t>
-  </si>
-  <si>
-    <t>[7:10]</t>
-  </si>
-  <si>
-    <t>[11]</t>
-  </si>
-  <si>
-    <t>[12:15]</t>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>[10:12]</t>
+  </si>
+  <si>
+    <t>//note abs(vx) &lt;= 999 &amp;&amp; abs(vy) &lt;= 999 &amp;&amp; abs(vz) &lt;= 999</t>
   </si>
 </sst>
 </file>
@@ -482,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A976FAD-96DA-4E13-93E1-F4883F22D0E3}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -493,17 +463,17 @@
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.85546875" style="1" customWidth="1"/>
     <col min="4" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -511,136 +481,87 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
